--- a/BL1.xlsx
+++ b/BL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msi1\Desktop\1st semeter 1st year\Subsurface inverstigation Lab CVE660\Lab\lab2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EB1DF6-1DE8-44AF-A1BA-8C93D787EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93CA491-8486-4D38-B845-33C2601D0EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -543,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -586,7 +586,7 @@
       <c r="G2" s="4"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -661,11 +661,8 @@
       <c r="N4">
         <v>13</v>
       </c>
-      <c r="O4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -687,11 +684,8 @@
       <c r="N5">
         <v>10</v>
       </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -716,11 +710,8 @@
       <c r="N6">
         <v>11</v>
       </c>
-      <c r="O6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -742,11 +733,8 @@
       <c r="N7">
         <v>8</v>
       </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -777,11 +765,8 @@
       <c r="N8">
         <v>38</v>
       </c>
-      <c r="O8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -815,11 +800,8 @@
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -844,11 +826,8 @@
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -888,11 +867,8 @@
       <c r="N11">
         <v>50</v>
       </c>
-      <c r="O11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -923,11 +899,8 @@
       <c r="N12">
         <v>50</v>
       </c>
-      <c r="O12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,11 +922,8 @@
       <c r="N13">
         <v>50</v>
       </c>
-      <c r="O13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -978,11 +948,8 @@
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -1004,11 +971,8 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1030,11 +994,8 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1051,16 +1012,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>100</v>
-      </c>
-      <c r="O17">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1095,16 +1053,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>100</v>
-      </c>
-      <c r="O18">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1121,16 +1076,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>100</v>
-      </c>
-      <c r="O19">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1150,16 +1102,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>100</v>
-      </c>
-      <c r="O20">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1179,16 +1128,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>100</v>
-      </c>
-      <c r="O21">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
@@ -1205,16 +1151,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1231,16 +1174,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>100</v>
-      </c>
-      <c r="O23">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
@@ -1257,16 +1197,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>100</v>
-      </c>
-      <c r="O24">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
@@ -1283,13 +1220,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>100</v>
-      </c>
-      <c r="O25">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
